--- a/cardManagement.xlsx
+++ b/cardManagement.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="In Vault - Both" r:id="rId3" sheetId="1"/>
-    <sheet name="In Crate - Both" r:id="rId4" sheetId="2"/>
+    <sheet name="In Vault" r:id="rId3" sheetId="1"/>
+    <sheet name="In Crate" r:id="rId4" sheetId="2"/>
     <sheet name="UCI's" r:id="rId5" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'In Vault - Both'!$A$1:$O$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'In Crate - Both'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'In Vault'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'In Crate'!$A$1:$O$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'UCI''s'!$A$1:$O$15</definedName>
   </definedNames>
 </workbook>
@@ -171,12 +171,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -189,256 +198,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.8125" customWidth="true"/>
-    <col min="2" max="2" width="7.8125" customWidth="true"/>
-    <col min="3" max="3" width="7.8125" customWidth="true"/>
-    <col min="4" max="4" width="7.8125" customWidth="true"/>
-    <col min="5" max="5" width="7.8125" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
-    <col min="7" max="7" width="7.8125" customWidth="true"/>
-    <col min="8" max="8" width="7.8125" customWidth="true"/>
-    <col min="9" max="9" width="7.8125" customWidth="true"/>
-    <col min="10" max="10" width="7.8125" customWidth="true"/>
-    <col min="11" max="11" width="7.8125" customWidth="true"/>
-    <col min="12" max="12" width="7.8125" customWidth="true"/>
-    <col min="13" max="13" width="7.8125" customWidth="true"/>
-    <col min="14" max="14" width="7.8125" customWidth="true"/>
-    <col min="15" max="15" width="7.8125" customWidth="true"/>
+    <col min="1" max="1" width="9.765625" customWidth="true"/>
+    <col min="2" max="2" width="9.765625" customWidth="true"/>
+    <col min="3" max="3" width="9.765625" customWidth="true"/>
+    <col min="4" max="4" width="9.765625" customWidth="true"/>
+    <col min="5" max="5" width="9.765625" customWidth="true"/>
+    <col min="6" max="6" width="9.765625" customWidth="true"/>
+    <col min="7" max="7" width="9.765625" customWidth="true"/>
+    <col min="8" max="8" width="9.765625" customWidth="true"/>
+    <col min="9" max="9" width="9.765625" customWidth="true"/>
+    <col min="10" max="10" width="9.765625" customWidth="true"/>
+    <col min="11" max="11" width="9.765625" customWidth="true"/>
+    <col min="12" max="12" width="9.765625" customWidth="true"/>
+    <col min="13" max="13" width="9.765625" customWidth="true"/>
+    <col min="14" max="14" width="9.765625" customWidth="true"/>
+    <col min="15" max="15" width="9.765625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="4">
+      <c r="B1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="4">
+      <c r="F1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="J1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s" s="4">
+      <c r="J1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="M1" t="s" s="4">
+      <c r="M1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="N1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s" s="4">
+      <c r="N1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <f>SUM(C1:C13)</f>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <f>SUM(G1:G13)</f>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <f>SUM(K1:K13)</f>
       </c>
-      <c r="M14" t="s" s="3">
+      <c r="M14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
         <f>SUM(O1:O13)</f>
       </c>
     </row>
@@ -456,256 +465,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.8125" customWidth="true"/>
-    <col min="2" max="2" width="7.8125" customWidth="true"/>
-    <col min="3" max="3" width="7.8125" customWidth="true"/>
-    <col min="4" max="4" width="7.8125" customWidth="true"/>
-    <col min="5" max="5" width="7.8125" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
-    <col min="7" max="7" width="7.8125" customWidth="true"/>
-    <col min="8" max="8" width="7.8125" customWidth="true"/>
-    <col min="9" max="9" width="7.8125" customWidth="true"/>
-    <col min="10" max="10" width="7.8125" customWidth="true"/>
-    <col min="11" max="11" width="7.8125" customWidth="true"/>
-    <col min="12" max="12" width="7.8125" customWidth="true"/>
-    <col min="13" max="13" width="7.8125" customWidth="true"/>
-    <col min="14" max="14" width="7.8125" customWidth="true"/>
-    <col min="15" max="15" width="7.8125" customWidth="true"/>
+    <col min="1" max="1" width="9.765625" customWidth="true"/>
+    <col min="2" max="2" width="9.765625" customWidth="true"/>
+    <col min="3" max="3" width="9.765625" customWidth="true"/>
+    <col min="4" max="4" width="9.765625" customWidth="true"/>
+    <col min="5" max="5" width="9.765625" customWidth="true"/>
+    <col min="6" max="6" width="9.765625" customWidth="true"/>
+    <col min="7" max="7" width="9.765625" customWidth="true"/>
+    <col min="8" max="8" width="9.765625" customWidth="true"/>
+    <col min="9" max="9" width="9.765625" customWidth="true"/>
+    <col min="10" max="10" width="9.765625" customWidth="true"/>
+    <col min="11" max="11" width="9.765625" customWidth="true"/>
+    <col min="12" max="12" width="9.765625" customWidth="true"/>
+    <col min="13" max="13" width="9.765625" customWidth="true"/>
+    <col min="14" max="14" width="9.765625" customWidth="true"/>
+    <col min="15" max="15" width="9.765625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="4">
+      <c r="B1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="4">
+      <c r="F1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="J1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s" s="4">
+      <c r="J1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="M1" t="s" s="4">
+      <c r="M1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="N1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s" s="4">
+      <c r="N1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <f>SUM(C1:C13)</f>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <f>SUM(G1:G13)</f>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <f>SUM(K1:K13)</f>
       </c>
-      <c r="M14" t="s" s="3">
+      <c r="M14" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
         <f>SUM(O1:O13)</f>
       </c>
     </row>
@@ -723,227 +732,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.8125" customWidth="true"/>
-    <col min="2" max="2" width="7.8125" customWidth="true"/>
-    <col min="3" max="3" width="7.8125" customWidth="true"/>
-    <col min="4" max="4" width="7.8125" customWidth="true"/>
-    <col min="5" max="5" width="7.8125" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
-    <col min="7" max="7" width="7.8125" customWidth="true"/>
-    <col min="8" max="8" width="7.8125" customWidth="true"/>
-    <col min="9" max="9" width="7.8125" customWidth="true"/>
-    <col min="10" max="10" width="7.8125" customWidth="true"/>
-    <col min="11" max="11" width="7.8125" customWidth="true"/>
-    <col min="12" max="12" width="7.8125" customWidth="true"/>
-    <col min="13" max="13" width="7.8125" customWidth="true"/>
-    <col min="14" max="14" width="7.8125" customWidth="true"/>
-    <col min="15" max="15" width="7.8125" customWidth="true"/>
+    <col min="1" max="1" width="9.765625" customWidth="true"/>
+    <col min="2" max="2" width="9.765625" customWidth="true"/>
+    <col min="3" max="3" width="9.765625" customWidth="true"/>
+    <col min="4" max="4" width="9.765625" customWidth="true"/>
+    <col min="5" max="5" width="9.765625" customWidth="true"/>
+    <col min="6" max="6" width="9.765625" customWidth="true"/>
+    <col min="7" max="7" width="9.765625" customWidth="true"/>
+    <col min="8" max="8" width="9.765625" customWidth="true"/>
+    <col min="9" max="9" width="9.765625" customWidth="true"/>
+    <col min="10" max="10" width="9.765625" customWidth="true"/>
+    <col min="11" max="11" width="9.765625" customWidth="true"/>
+    <col min="12" max="12" width="9.765625" customWidth="true"/>
+    <col min="13" max="13" width="9.765625" customWidth="true"/>
+    <col min="14" max="14" width="9.765625" customWidth="true"/>
+    <col min="15" max="15" width="9.765625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="4">
+      <c r="B1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="4">
+      <c r="F1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="J1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s" s="4">
+      <c r="J1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="M1" t="s" s="4">
+      <c r="M1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="N1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s" s="4">
+      <c r="N1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14"/>

--- a/cardManagement.xlsx
+++ b/cardManagement.xlsx
@@ -11,9 +11,9 @@
     <sheet name="UCI's" r:id="rId5" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'In Vault'!$A$1:$O$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'In Crate'!$A$1:$O$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'UCI''s'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'In Vault'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'In Crate'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'UCI''s'!$A$1:$O$14</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -646,32 +646,32 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="8">
+      <c r="A14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13">
         <f>SUM(C1:C13)</f>
       </c>
-      <c r="E14" t="s" s="8">
+      <c r="E14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10">
+      <c r="F14" s="12"/>
+      <c r="G14" s="13">
         <f>SUM(G1:G13)</f>
       </c>
-      <c r="I14" t="s" s="8">
+      <c r="I14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="10">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13">
         <f>SUM(K1:K13)</f>
       </c>
-      <c r="M14" t="s" s="8">
+      <c r="M14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="10">
+      <c r="N14" s="12"/>
+      <c r="O14" s="13">
         <f>SUM(O1:O13)</f>
       </c>
     </row>
@@ -973,32 +973,32 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="8">
+      <c r="A14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13">
         <f>SUM(C1:C13)</f>
       </c>
-      <c r="E14" t="s" s="8">
+      <c r="E14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10">
+      <c r="F14" s="12"/>
+      <c r="G14" s="13">
         <f>SUM(G1:G13)</f>
       </c>
-      <c r="I14" t="s" s="8">
+      <c r="I14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="10">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13">
         <f>SUM(K1:K13)</f>
       </c>
-      <c r="M14" t="s" s="8">
+      <c r="M14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="10">
+      <c r="N14" s="12"/>
+      <c r="O14" s="13">
         <f>SUM(O1:O13)</f>
       </c>
     </row>

--- a/cardManagement.xlsx
+++ b/cardManagement.xlsx
@@ -6,20 +6,22 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="In Vault" r:id="rId3" sheetId="1"/>
+    <sheet name="On Shelf" r:id="rId3" sheetId="1"/>
     <sheet name="In Crate" r:id="rId4" sheetId="2"/>
-    <sheet name="UCI's" r:id="rId5" sheetId="3"/>
+    <sheet name="All Stock" r:id="rId5" sheetId="3"/>
+    <sheet name="UCI's" r:id="rId6" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'In Vault'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'On Shelf'!$A$1:$O$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'In Crate'!$A$1:$O$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'UCI''s'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'All Stock'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'UCI''s'!$A$1:$O$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="38">
   <si>
     <t>TACHO</t>
   </si>
@@ -1040,8 +1042,8 @@
       <c r="B1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="14">
-        <v>20</v>
+      <c r="C1" t="s" s="16">
+        <v>2</v>
       </c>
       <c r="E1" t="s" s="14">
         <v>9</v>
@@ -1049,8 +1051,8 @@
       <c r="F1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="G1" t="s" s="14">
-        <v>20</v>
+      <c r="G1" t="s" s="16">
+        <v>2</v>
       </c>
       <c r="I1" t="s" s="14">
         <v>11</v>
@@ -1058,8 +1060,8 @@
       <c r="J1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="K1" t="s" s="14">
-        <v>20</v>
+      <c r="K1" t="s" s="16">
+        <v>2</v>
       </c>
       <c r="M1" t="s" s="14">
         <v>18</v>
@@ -1067,8 +1069,8 @@
       <c r="N1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="O1" t="s" s="14">
-        <v>20</v>
+      <c r="O1" t="s" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -1078,8 +1080,8 @@
       <c r="B2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="8">
-        <v>21</v>
+      <c r="C2" t="n" s="10">
+        <v>10315.0</v>
       </c>
       <c r="E2" t="s" s="8">
         <v>10</v>
@@ -1087,8 +1089,8 @@
       <c r="F2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="8">
-        <v>25</v>
+      <c r="G2" t="n" s="10">
+        <v>261610.0</v>
       </c>
       <c r="I2" t="s" s="8">
         <v>12</v>
@@ -1096,8 +1098,8 @@
       <c r="J2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="K2" t="s" s="8">
-        <v>27</v>
+      <c r="K2" t="n" s="10">
+        <v>39739.0</v>
       </c>
       <c r="M2" t="s" s="8">
         <v>18</v>
@@ -1105,8 +1107,8 @@
       <c r="N2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="O2" t="s" s="8">
-        <v>37</v>
+      <c r="O2" t="n" s="10">
+        <v>10168.0</v>
       </c>
     </row>
     <row r="3">
@@ -1116,8 +1118,8 @@
       <c r="B3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>22</v>
+      <c r="C3" t="n" s="4">
+        <v>22.0</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>10</v>
@@ -1125,8 +1127,8 @@
       <c r="F3" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>26</v>
+      <c r="G3" t="n" s="4">
+        <v>626445.0</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>13</v>
@@ -1134,8 +1136,8 @@
       <c r="J3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>28</v>
+      <c r="K3" t="n" s="4">
+        <v>52646.0</v>
       </c>
       <c r="M3" t="s" s="2">
         <v>18</v>
@@ -1143,8 +1145,8 @@
       <c r="N3" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="O3" t="s" s="2">
-        <v>37</v>
+      <c r="O3" t="n" s="4">
+        <v>160731.0</v>
       </c>
     </row>
     <row r="4">
@@ -1154,8 +1156,8 @@
       <c r="B4" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="8">
-        <v>23</v>
+      <c r="C4" t="n" s="10">
+        <v>143786.0</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
@@ -1166,8 +1168,8 @@
       <c r="J4" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="K4" t="s" s="8">
-        <v>29</v>
+      <c r="K4" t="n" s="10">
+        <v>68655.0</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
@@ -1180,8 +1182,8 @@
       <c r="B5" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>24</v>
+      <c r="C5" t="n" s="4">
+        <v>732.0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -1192,8 +1194,8 @@
       <c r="J5" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>30</v>
+      <c r="K5" t="n" s="4">
+        <v>6085.0</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
@@ -1206,8 +1208,8 @@
       <c r="B6" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="8">
-        <v>23</v>
+      <c r="C6" t="n" s="10">
+        <v>139744.0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
@@ -1218,8 +1220,8 @@
       <c r="J6" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="K6" t="s" s="8">
-        <v>31</v>
+      <c r="K6" t="n" s="10">
+        <v>14316.0</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
@@ -1238,8 +1240,8 @@
       <c r="J7" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>32</v>
+      <c r="K7" t="n" s="4">
+        <v>76861.0</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
@@ -1258,8 +1260,8 @@
       <c r="J8" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="K8" t="s" s="8">
-        <v>33</v>
+      <c r="K8" t="n" s="10">
+        <v>66365.0</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
@@ -1278,8 +1280,8 @@
       <c r="J9" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>34</v>
+      <c r="K9" t="n" s="4">
+        <v>1767914.0</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
@@ -1298,8 +1300,8 @@
       <c r="J10" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="K10" t="s" s="8">
-        <v>35</v>
+      <c r="K10" t="n" s="10">
+        <v>16097.0</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
@@ -1318,8 +1320,8 @@
       <c r="J11" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>36</v>
+      <c r="K11" t="n" s="4">
+        <v>295817.0</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
@@ -1353,6 +1355,387 @@
       <c r="N13" s="3"/>
       <c r="O13" s="2"/>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13">
+        <f>SUM(C1:C13)</f>
+      </c>
+      <c r="E14" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13">
+        <f>SUM(G1:G13)</f>
+      </c>
+      <c r="I14" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13">
+        <f>SUM(K1:K13)</f>
+      </c>
+      <c r="M14" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13">
+        <f>SUM(O1:O13)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="1" fitToWidth="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true"/>
+    <col min="7" max="7" width="11.71875" customWidth="true"/>
+    <col min="8" max="8" width="11.71875" customWidth="true"/>
+    <col min="9" max="9" width="11.71875" customWidth="true"/>
+    <col min="10" max="10" width="11.71875" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
+    <col min="13" max="13" width="11.71875" customWidth="true"/>
+    <col min="14" max="14" width="11.71875" customWidth="true"/>
+    <col min="15" max="15" width="11.71875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="14">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="I5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="I7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="I9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="I11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+    </row>
     <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
